--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.051921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.051921.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4583,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5385,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5499,12 +5499,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5727,12 +5727,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5879,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5997,12 +5997,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6419,12 +6419,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6685,12 +6685,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7027,12 +7027,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7217,12 +7217,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7335,12 +7335,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7487,12 +7487,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7601,12 +7601,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7753,12 +7753,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8323,12 +8323,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8779,12 +8779,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8893,12 +8893,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9961,12 +9961,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9999,12 +9999,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10687,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11029,12 +11029,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12059,12 +12059,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12135,12 +12135,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12437,12 +12437,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12703,12 +12703,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12931,12 +12931,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13121,12 +13121,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13311,12 +13311,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13463,12 +13463,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13843,12 +13843,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14187,12 +14187,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14567,12 +14567,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14681,12 +14681,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15479,12 +15479,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15783,12 +15783,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16163,12 +16163,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16353,12 +16353,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16391,12 +16391,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16543,12 +16543,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16657,12 +16657,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16771,12 +16771,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16923,12 +16923,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17455,12 +17455,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18215,12 +18215,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18295,12 +18295,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18333,12 +18333,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18561,12 +18561,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18865,12 +18865,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19017,12 +19017,12 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19207,12 +19207,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19587,12 +19587,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19663,12 +19663,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19701,12 +19701,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19967,12 +19967,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20195,12 +20195,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20271,12 +20271,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20689,12 +20689,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21069,12 +21069,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21563,12 +21563,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21715,12 +21715,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21905,12 +21905,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22435,12 +22435,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22511,12 +22511,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22857,12 +22857,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23161,12 +23161,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23241,12 +23241,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23279,12 +23279,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23659,12 +23659,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23887,12 +23887,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24001,12 +24001,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24153,12 +24153,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24305,12 +24305,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24347,12 +24347,12 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24575,12 +24575,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
